--- a/TestCases/测试用例描述.xlsx
+++ b/TestCases/测试用例描述.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>测试观点一览</t>
   </si>
@@ -109,16 +109,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>dian</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子功能</t>
-    <rPh sb="0" eb="1">
-      <t>zi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>gong'n</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -194,6 +184,196 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>tan'k</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码登录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <rPh sb="0" eb="1">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <rPh sb="0" eb="1">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码登录</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的用户名
+2.输入正确的验证码
+3.点击登录按钮</t>
+    <rPh sb="2" eb="3">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出toast 提示信息：
+“手机号或密码错误，请重新输入”</t>
+    <rPh sb="0" eb="1">
+      <t>tan'chu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的用户名
+2.输入错误的密码
+3.点击登录按钮</t>
+    <rPh sb="2" eb="3">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入正确的用户名
+2.输入错误的验证码
+3.点击登录按钮</t>
+    <rPh sb="2" eb="3">
+      <t>shu'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong'hu'm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cuo'wu'o</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出toast 提示信息：
+“验证码错误”</t>
+    <rPh sb="15" eb="16">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>cuo'wu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -340,38 +520,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,10 +913,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -850,130 +1030,156 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="17.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="9" customWidth="1"/>
-    <col min="5" max="6" width="49.1640625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="7.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="17.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="49.1640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:6" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="10" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>

--- a/TestCases/测试用例描述.xlsx
+++ b/TestCases/测试用例描述.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-8920" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-18640" windowWidth="28380" windowHeight="17080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试观点" sheetId="1" r:id="rId1"/>
     <sheet name="login_test" sheetId="3" r:id="rId2"/>
+    <sheet name="register" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>测试观点一览</t>
   </si>
@@ -374,6 +375,1133 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号验证</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan'z</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已注册</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码正确</t>
+    <rPh sb="0" eb="1">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng'q</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入未注册的手机号
+2.点击获取验证码
+3.输入正确验证码
+4.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhu'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xia'y'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入未注册手机号
+2.点击获取验证码
+3.输入验证码
+4点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhu'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功跳转下一界面</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹 alert 提示
+“该手机已注册，请登录”</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gai'shou'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'zhu'c</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>deng'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹 toast 提示
+“请输入正确的手机号”</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shou'ji'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入未注册的手机号
+2.点击获取验证码
+3.输入错误验证码
+4.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei'zhu'c</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shou'ji'h</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cuo'wu</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>xia'y'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹 toast 提示
+“验证码错误”</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cuo'wu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码</t>
+    <rPh sb="0" eb="1">
+      <t>she'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格密码</t>
+    <rPh sb="0" eb="1">
+      <t>he'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型不合格</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'he'g</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度不合格
+密码&gt;20位</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'he'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度不合格
+密码&lt;6位</t>
+    <rPh sb="0" eb="1">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chang'du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'he'g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入合格密码
+2.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xia'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯数字
+纯字母
+纯符号
+混合类型密码</t>
+    <rPh sb="0" eb="1">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shu'zi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chun</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu'hao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>hun'he</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lei'x</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6个空格
+输入中文</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kong'g</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong'w</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入不合格密码
+2.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现提示信息：
+“请输入英文字母、数字或符号”</t>
+    <rPh sb="0" eb="1">
+      <t>chu'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying'w</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi'm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shu'z</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huo</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>fu'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入密码&gt;20位
+2.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xia'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹 toast 提示
+“密码最多20位”</t>
+    <rPh sb="0" eb="1">
+      <t>tan</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zui'd</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【下一步】按钮不可点击</t>
+    <rPh sb="1" eb="2">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dian'ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入密码&lt;6位
+2.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xia'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写学校信息</t>
+    <rPh sb="0" eb="1">
+      <t>tian'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xin'xi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常流程</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择指定大学
+2.选择指定院系
+3.选择指定年级
+4.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>da'x</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhi'd</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yuan'xi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zhi'd</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>nian'ji</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xia'yi'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功跳转下一界面</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tiao'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'yi'jie'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信号段
+联通号段
+移动号段</t>
+    <rPh sb="0" eb="1">
+      <t>dian'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao'duan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian't</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao'd</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi'dong'hao'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非手机号</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou'ji'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;11位的手机号段
+11位非手机号段</t>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou'ji</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hao'd</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shou'ji'hao'duan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.输入非手机号
+2.点击获取验证码
+3.输入正确验证码
+4.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fei'shou'ji'h</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shu'ru</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zheng'q</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yan'zheng'm</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xia'y'b</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写基本资料</t>
+    <rPh sb="0" eb="1">
+      <t>tian'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名合格/男</t>
+    <rPh sb="0" eb="1">
+      <t>xing'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名合格/女</t>
+    <rPh sb="0" eb="1">
+      <t>xing'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>nv</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓氏不合格/男</t>
+    <rPh sb="0" eb="1">
+      <t>xing'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'he'g</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.填写合格姓名
+2.选择性别 男
+3.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>tian'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing'm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xing'b</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.填写不合格姓名
+2.选择性别 男
+3.待alert提示弹出后点击确认
+3.点击【下一步】</t>
+    <rPh sb="2" eb="3">
+      <t>tian'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing'm</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xing'b</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>tan'chu</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>xia'yi'bu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <rPh sb="0" eb="1">
+      <t>shang'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'x</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册上传</t>
+    <rPh sb="0" eb="1">
+      <t>xiang'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shang'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <rPh sb="0" eb="1">
+      <t>pai'z</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像按钮
+2.选择本地相册照片
+3.点击【进入芥末】</t>
+    <rPh sb="2" eb="3">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ben'di</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xiang'c</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhao'p</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击头像按钮
+2.选择拍照模式并进行拍照
+3.点击【进入芥末】</t>
+    <rPh sb="2" eb="3">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tou'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>an'n</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>pai'z</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>mo's</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jin'x</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pai'z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>jin'ru</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jie'm</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加兴趣引导</t>
+    <rPh sb="0" eb="1">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing'qu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻页、添加兴趣</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ye</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing'qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.第一添加任意两个兴趣
+2.第二页添加任意两个兴趣</t>
+    <rPh sb="2" eb="3">
+      <t>di'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing'qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>di'er'y</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>liang'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xing'q</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友推荐引导</t>
+    <rPh sb="0" eb="1">
+      <t>hao'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yin'd</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加好友</t>
+    <rPh sb="0" eb="1">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号A</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号A+1</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'h</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.选择任意好友
+2.点击【添加他们为好友】</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hao'y</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ta'm</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hao'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不添加好友</t>
+    <rPh sb="0" eb="1">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tian'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击【X】按钮</t>
+    <rPh sb="0" eb="1">
+      <t>dian'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>an'n</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传通讯录</t>
+    <rPh sb="0" eb="1">
+      <t>shang'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'xun'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <rPh sb="0" eb="1">
+      <t>shang'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不上传</t>
+    <rPh sb="0" eb="1">
+      <t>bu'shang'c</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.待弹出 alert</t>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tan'ch</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -382,7 +1510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -425,8 +1553,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +1585,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -501,13 +1641,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,6 +1708,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,6 +1752,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +2137,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1029,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1043,14 +2267,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1189,4 +2413,437 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>20001</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>20002</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>20004</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>20007</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>20008</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>20009</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>20010</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>20012</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>20013</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>20014</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>20016</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>20018</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <v>20020</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <v>20022</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <v>20024</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>